--- a/Manual_Doc/OrangeHRM_TestCases_V1.xlsx
+++ b/Manual_Doc/OrangeHRM_TestCases_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6F5E775-BE6D-4B60-B6BE-3DBB7BF1149F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F5B221-3F02-450C-A972-71C2A855E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
-  <si>
-    <t>SNO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="194">
   <si>
     <t>Req#ID</t>
   </si>
@@ -495,9 +492,6 @@
     <t>Repeat steps from  TC_MyInfo_014</t>
   </si>
   <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
     <t>ESS user can add multiple Emergency Contacts</t>
   </si>
   <si>
@@ -508,13 +502,204 @@
   </si>
   <si>
     <t>Verify ESS user able to delete  Dependants</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Reference Document</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Approvel Date</t>
+  </si>
+  <si>
+    <t>OrangeHRM</t>
+  </si>
+  <si>
+    <t>FRS</t>
+  </si>
+  <si>
+    <t>Srikanth</t>
+  </si>
+  <si>
+    <t>TestScenario ID</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>TS_021</t>
+  </si>
+  <si>
+    <t>TS_022</t>
+  </si>
+  <si>
+    <t>TS_023</t>
+  </si>
+  <si>
+    <t>TS_024</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>TS_027</t>
+  </si>
+  <si>
+    <t>TS_028</t>
+  </si>
+  <si>
+    <t>TS_029</t>
+  </si>
+  <si>
+    <t>TS_030</t>
+  </si>
+  <si>
+    <t>TS_031</t>
+  </si>
+  <si>
+    <t>TS_032</t>
+  </si>
+  <si>
+    <t>TS_033</t>
+  </si>
+  <si>
+    <t>TS_034</t>
+  </si>
+  <si>
+    <t>TS_035</t>
+  </si>
+  <si>
+    <t>TS_036</t>
+  </si>
+  <si>
+    <t>TS_037</t>
+  </si>
+  <si>
+    <t>TS_038</t>
+  </si>
+  <si>
+    <t>TS_039</t>
+  </si>
+  <si>
+    <t>TS_040</t>
+  </si>
+  <si>
+    <t>TS_041</t>
+  </si>
+  <si>
+    <t>TS_042</t>
+  </si>
+  <si>
+    <t>Scenarios Description</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>TS_001
+(Login Functionality)</t>
+  </si>
+  <si>
+    <t>TS_002
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_003
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_004
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_005
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_006
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_007
+(Personal Details Functionality)</t>
+  </si>
+  <si>
+    <t>TS_008
+(Personal Contact  Functionality)</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +724,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,9 +819,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,14 +830,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -981,560 +1184,795 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>29</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="D45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="D48" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="13"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1544,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8314C97F-BF27-4FA3-8A3F-81D675E1385B}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1565,481 +2003,481 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="H2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="E8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="99" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="H8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="132" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="99" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="99" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="132" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="F12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="G16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="E17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2067,138 +2505,138 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
